--- a/resource/cn/csv/Level.xlsx
+++ b/resource/cn/csv/Level.xlsx
@@ -14,30 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>mapId</t>
   </si>
   <si>
-    <t>rolePosition</t>
-  </si>
-  <si>
-    <t>rollInCount</t>
-  </si>
-  <si>
-    <t>rollInTotalCount</t>
-  </si>
-  <si>
-    <t>rollSpeed</t>
-  </si>
-  <si>
-    <t>stableSpeed</t>
-  </si>
-  <si>
-    <t>colorBallCount</t>
-  </si>
-  <si>
-    <t>mapData</t>
+    <t>path</t>
+  </si>
+  <si>
+    <t>monstersId</t>
+  </si>
+  <si>
+    <t>waveNum</t>
+  </si>
+  <si>
+    <t>monsterNumRange</t>
+  </si>
+  <si>
+    <t>openBaseCount</t>
+  </si>
+  <si>
+    <t>maxBaseCount</t>
+  </si>
+  <si>
+    <t>waveNumDelay</t>
+  </si>
+  <si>
+    <t>monsterDelay</t>
+  </si>
+  <si>
+    <t>baseW</t>
+  </si>
+  <si>
+    <t>baseH</t>
   </si>
   <si>
     <t>icon</t>
@@ -52,25 +61,34 @@
     <t>地图ID</t>
   </si>
   <si>
-    <t>角色位置x|y</t>
-  </si>
-  <si>
-    <t>初始滚入球的数量</t>
-  </si>
-  <si>
-    <t>滚入球的最大总数</t>
-  </si>
-  <si>
-    <t>球滚入的速度</t>
-  </si>
-  <si>
-    <t>球稳定的速度</t>
-  </si>
-  <si>
-    <t>最大颜色球数量</t>
-  </si>
-  <si>
-    <t>地图数据</t>
+    <t>地图路径</t>
+  </si>
+  <si>
+    <t>出怪物ID</t>
+  </si>
+  <si>
+    <t>波数</t>
+  </si>
+  <si>
+    <t>怪物数量范围</t>
+  </si>
+  <si>
+    <t>开放的底座数量</t>
+  </si>
+  <si>
+    <t>最大的底座数量</t>
+  </si>
+  <si>
+    <t>每波怪之间延迟</t>
+  </si>
+  <si>
+    <t>刷怪延迟</t>
+  </si>
+  <si>
+    <t>底座宽度</t>
+  </si>
+  <si>
+    <t>底座高度</t>
   </si>
   <si>
     <t>图片资源</t>
@@ -79,43 +97,40 @@
     <t>10000</t>
   </si>
   <si>
-    <t>380,530</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>425,1309#423,1015#207,1013#201,739#585,732#577,287#370,278#357,3</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>5,10</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>-57, 613# -25, 667# 110, 875# 207, 985# 331, 1062# 475, 1067# 616, 986#677, 843# 688, 693# 674, 554# 611, 377# 528, 264#400, 212# 254, 236# 133, 333# 89, 477# 122, 679#237, 866# 341, 959# 418, 980# 510, 944# 572, 855#592, 715# 579, 548# 537, 417# 485, 339# 433, 299# 353, 287# 276, 305# 221, 354# 181, 441# 181, 533# 218, 663# 286, 779# 355, 827# 436, 839# 483, 832</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>368,1252#370,981#607,983#588,232#366,233#368,110</t>
   </si>
   <si>
     <t>10001</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>10002</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>10003</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>10004</t>
@@ -126,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -141,27 +156,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -185,13 +252,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -216,76 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +315,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -312,67 +405,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,103 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,41 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +548,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -568,17 +574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,151 +591,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,26 +1076,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8.83333333333333" style="1"/>
-    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83333333333333" style="1"/>
-    <col min="9" max="9" width="8.25" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83333333333333" style="1"/>
+    <col min="2" max="2" width="63" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83333333333333" style="1"/>
+    <col min="12" max="12" width="8.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,208 +1124,280 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>10001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>10002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>10003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="G7" s="1">
+        <v>12</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>10004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
